--- a/pinsN.xlsx
+++ b/pinsN.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="354">
   <si>
     <t>PA00</t>
   </si>
@@ -729,15 +729,9 @@
     <t>A01</t>
   </si>
   <si>
-    <t>R55</t>
-  </si>
-  <si>
     <t>A02</t>
   </si>
   <si>
-    <t>R57</t>
-  </si>
-  <si>
     <t>A03</t>
   </si>
   <si>
@@ -765,21 +759,12 @@
     <t>A07</t>
   </si>
   <si>
-    <t>R43</t>
-  </si>
-  <si>
     <t>A08</t>
   </si>
   <si>
-    <t>R41</t>
-  </si>
-  <si>
     <t>A09</t>
   </si>
   <si>
-    <t>R53</t>
-  </si>
-  <si>
     <t>A10</t>
   </si>
   <si>
@@ -789,9 +774,6 @@
     <t>A11</t>
   </si>
   <si>
-    <t>R32</t>
-  </si>
-  <si>
     <t>A12</t>
   </si>
   <si>
@@ -819,33 +801,18 @@
     <t>B00</t>
   </si>
   <si>
-    <t>R44</t>
-  </si>
-  <si>
     <t>B01</t>
   </si>
   <si>
-    <t>R42</t>
-  </si>
-  <si>
     <t>B02</t>
   </si>
   <si>
-    <t>R51</t>
-  </si>
-  <si>
     <t>B03</t>
   </si>
   <si>
-    <t>R47</t>
-  </si>
-  <si>
     <t>B04</t>
   </si>
   <si>
-    <t>R49</t>
-  </si>
-  <si>
     <t>B05</t>
   </si>
   <si>
@@ -873,33 +840,18 @@
     <t>B09</t>
   </si>
   <si>
-    <t>R45</t>
-  </si>
-  <si>
     <t>B10</t>
   </si>
   <si>
-    <t>R36</t>
-  </si>
-  <si>
     <t>B12</t>
   </si>
   <si>
-    <t>R50</t>
-  </si>
-  <si>
     <t>B13</t>
   </si>
   <si>
-    <t>R48</t>
-  </si>
-  <si>
     <t>B14</t>
   </si>
   <si>
-    <t>R46</t>
-  </si>
-  <si>
     <t>B15</t>
   </si>
   <si>
@@ -927,9 +879,6 @@
     <t>C03</t>
   </si>
   <si>
-    <t>R54</t>
-  </si>
-  <si>
     <t>C04</t>
   </si>
   <si>
@@ -945,9 +894,6 @@
     <t>C06</t>
   </si>
   <si>
-    <t>R39</t>
-  </si>
-  <si>
     <t>C07</t>
   </si>
   <si>
@@ -1066,6 +1012,75 @@
   </si>
   <si>
     <t>SPI_Sel</t>
+  </si>
+  <si>
+    <t>SWDIO</t>
+  </si>
+  <si>
+    <t>SWCLK</t>
+  </si>
+  <si>
+    <t>SWO</t>
+  </si>
+  <si>
+    <t>OSC_IN</t>
+  </si>
+  <si>
+    <t>OSC_OUT</t>
+  </si>
+  <si>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>R30</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t>R03</t>
+  </si>
+  <si>
+    <t>R04</t>
+  </si>
+  <si>
+    <t>R05</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R27</t>
+  </si>
+  <si>
+    <t>R28</t>
+  </si>
+  <si>
+    <t>R06</t>
+  </si>
+  <si>
+    <t>R19</t>
   </si>
 </sst>
 </file>
@@ -2001,7 +2016,7 @@
   <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2025,180 +2040,183 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>232</v>
+        <v>343</v>
       </c>
       <c r="B1" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>229</v>
+        <v>71</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>324</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
+      <c r="I1" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" t="s">
-        <v>6</v>
+        <v>133</v>
+      </c>
+      <c r="K1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P1" t="s">
+        <v>75</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>66</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" t="s">
-        <v>14</v>
+        <v>68</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>236</v>
+        <v>294</v>
       </c>
       <c r="B3" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>230</v>
+        <v>59</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" t="s">
-        <v>16</v>
+        <v>61</v>
+      </c>
+      <c r="K3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="B4" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>93</v>
+        <v>71</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>141</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="N4" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="B5" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>71</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>115</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="N5" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="Q5" s="11" t="s">
         <v>86</v>
@@ -2206,31 +2224,37 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>242</v>
+        <v>336</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" t="s">
-        <v>37</v>
+        <v>71</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" t="s">
+        <v>120</v>
       </c>
       <c r="L6" t="s">
-        <v>38</v>
+        <v>51</v>
+      </c>
+      <c r="M6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P6" t="s">
+        <v>121</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>70</v>
@@ -2238,113 +2262,104 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="B7" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>41</v>
+        <v>71</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" t="s">
+        <v>158</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="P7" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>246</v>
+        <v>349</v>
       </c>
       <c r="B8" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>340</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>190</v>
+        <v>71</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" t="s">
-        <v>51</v>
+        <v>78</v>
+      </c>
+      <c r="N8" t="s">
+        <v>79</v>
       </c>
       <c r="P8" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="13" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B9" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" t="s">
-        <v>56</v>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="N9" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="14" t="s">
         <v>230</v>
@@ -2352,347 +2367,356 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="B10" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" t="s">
-        <v>62</v>
-      </c>
-      <c r="L10" t="s">
-        <v>63</v>
-      </c>
-      <c r="M10" t="s">
-        <v>64</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>59</v>
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" t="s">
+        <v>14</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>252</v>
+        <v>340</v>
       </c>
       <c r="B11" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" t="s">
-        <v>68</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>66</v>
+      <c r="E11" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="I11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" t="s">
+        <v>126</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="B12" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" t="s">
-        <v>73</v>
+        <v>1</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="I12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="N12" t="s">
-        <v>74</v>
-      </c>
-      <c r="P12" t="s">
-        <v>75</v>
+        <v>66</v>
+      </c>
+      <c r="O12" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>256</v>
+        <v>308</v>
       </c>
       <c r="B13" t="s">
-        <v>257</v>
+        <v>309</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" t="s">
-        <v>78</v>
-      </c>
-      <c r="N13" t="s">
-        <v>79</v>
-      </c>
-      <c r="P13" t="s">
-        <v>80</v>
+        <v>221</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I13" t="s">
+        <v>223</v>
+      </c>
+      <c r="O13" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="B14" t="s">
-        <v>259</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>82</v>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>260</v>
+        <v>338</v>
       </c>
       <c r="B15" t="s">
-        <v>261</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>84</v>
+      <c r="E15" t="s">
+        <v>322</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="B16" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" t="s">
-        <v>89</v>
+        <v>40</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="H16" t="s">
-        <v>3</v>
-      </c>
-      <c r="K16" t="s">
-        <v>90</v>
+        <v>42</v>
+      </c>
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" t="s">
+        <v>44</v>
       </c>
       <c r="L16" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M16" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" t="s">
-        <v>91</v>
+        <v>46</v>
+      </c>
+      <c r="P16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>264</v>
+        <v>352</v>
       </c>
       <c r="B17" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H17" t="s">
-        <v>94</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J17" t="s">
-        <v>96</v>
+      <c r="E17" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="N17" t="s">
-        <v>97</v>
+        <v>175</v>
       </c>
       <c r="O17" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>266</v>
+        <v>341</v>
       </c>
       <c r="B18" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>195</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" t="s">
-        <v>101</v>
+        <v>196</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G18" t="s">
+        <v>198</v>
       </c>
       <c r="I18" t="s">
         <v>102</v>
       </c>
       <c r="J18" t="s">
-        <v>103</v>
+        <v>199</v>
+      </c>
+      <c r="K18" t="s">
+        <v>115</v>
+      </c>
+      <c r="L18" t="s">
+        <v>200</v>
+      </c>
+      <c r="N18" t="s">
+        <v>201</v>
+      </c>
+      <c r="P18" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="B19" t="s">
-        <v>269</v>
-      </c>
-      <c r="C19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" t="s">
-        <v>24</v>
-      </c>
-      <c r="M19" t="s">
-        <v>106</v>
-      </c>
-      <c r="N19" t="s">
-        <v>97</v>
-      </c>
-      <c r="P19" t="s">
-        <v>107</v>
+        <v>311</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="B20" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>108</v>
+        <v>227</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" t="s">
-        <v>110</v>
-      </c>
-      <c r="L20" t="s">
-        <v>38</v>
-      </c>
-      <c r="M20" t="s">
-        <v>111</v>
+        <v>228</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="B21" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
         <v>70</v>
@@ -2700,96 +2724,84 @@
       <c r="E21" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" t="s">
-        <v>114</v>
-      </c>
-      <c r="I21" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21" t="s">
-        <v>115</v>
-      </c>
-      <c r="L21" t="s">
-        <v>45</v>
+      <c r="F21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" t="s">
+        <v>24</v>
       </c>
       <c r="M21" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="N21" t="s">
-        <v>117</v>
+        <v>97</v>
+      </c>
+      <c r="P21" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B22" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>119</v>
+        <v>87</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
-      </c>
-      <c r="K22" t="s">
-        <v>120</v>
-      </c>
-      <c r="L22" t="s">
-        <v>51</v>
+        <v>25</v>
+      </c>
+      <c r="J22" t="s">
+        <v>26</v>
       </c>
       <c r="M22" t="s">
-        <v>97</v>
-      </c>
-      <c r="P22" t="s">
-        <v>121</v>
+        <v>27</v>
+      </c>
+      <c r="N22" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B23" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="D23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="I23" t="s">
-        <v>123</v>
-      </c>
-      <c r="J23" t="s">
-        <v>90</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>125</v>
+        <v>86</v>
+      </c>
+      <c r="E23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L23" t="s">
+        <v>97</v>
+      </c>
+      <c r="M23" t="s">
+        <v>106</v>
       </c>
       <c r="N23" t="s">
-        <v>59</v>
-      </c>
-      <c r="P23" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -2800,513 +2812,510 @@
         <v>279</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="D24" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="I24" t="s">
-        <v>129</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="N24" t="s">
-        <v>66</v>
-      </c>
-      <c r="O24" t="s">
-        <v>131</v>
+        <v>86</v>
+      </c>
+      <c r="E24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M24" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="B25" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="C25" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>342</v>
+        <v>87</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" t="s">
+        <v>89</v>
       </c>
       <c r="H25" t="s">
         <v>3</v>
       </c>
-      <c r="I25" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="J25" t="s">
-        <v>133</v>
-      </c>
       <c r="K25" t="s">
-        <v>125</v>
-      </c>
-      <c r="P25" t="s">
-        <v>75</v>
+        <v>90</v>
+      </c>
+      <c r="L25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="B26" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="C26" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="E26" t="s">
-        <v>138</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>124</v>
+        <v>71</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="H26" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="I26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="K26" t="s">
-        <v>130</v>
-      </c>
-      <c r="L26" t="s">
-        <v>117</v>
-      </c>
-      <c r="M26" t="s">
-        <v>139</v>
-      </c>
-      <c r="P26" t="s">
-        <v>80</v>
+        <v>102</v>
+      </c>
+      <c r="J26" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="B27" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="C27" t="s">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H27" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" t="s">
-        <v>141</v>
-      </c>
-      <c r="L27" t="s">
-        <v>63</v>
+        <v>87</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="M27" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="N27" t="s">
-        <v>143</v>
+        <v>175</v>
+      </c>
+      <c r="O27" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>286</v>
+        <v>351</v>
       </c>
       <c r="B28" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C28" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>345</v>
+        <v>155</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="H28" t="s">
-        <v>42</v>
-      </c>
-      <c r="K28" t="s">
-        <v>145</v>
+        <v>94</v>
+      </c>
+      <c r="J28" t="s">
+        <v>96</v>
       </c>
       <c r="L28" t="s">
-        <v>117</v>
-      </c>
-      <c r="M28" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="N28" t="s">
-        <v>147</v>
-      </c>
-      <c r="P28" t="s">
-        <v>121</v>
+        <v>154</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>288</v>
+        <v>348</v>
       </c>
       <c r="B29" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="C29" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>149</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>231</v>
+        <v>71</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="H29" t="s">
-        <v>49</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="N29" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="P29" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>290</v>
+        <v>353</v>
       </c>
       <c r="B30" t="s">
         <v>291</v>
       </c>
       <c r="C30" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="D30" t="s">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>155</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H30" t="s">
-        <v>94</v>
+        <v>188</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" t="s">
+        <v>50</v>
       </c>
       <c r="J30" t="s">
-        <v>96</v>
+        <v>184</v>
+      </c>
+      <c r="K30" t="s">
+        <v>185</v>
       </c>
       <c r="L30" t="s">
-        <v>153</v>
+        <v>63</v>
+      </c>
+      <c r="M30" t="s">
+        <v>186</v>
       </c>
       <c r="N30" t="s">
-        <v>154</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>155</v>
+        <v>187</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="B31" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C31" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G31" t="s">
-        <v>158</v>
-      </c>
-      <c r="H31" t="s">
-        <v>101</v>
+        <v>181</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31" t="s">
+        <v>43</v>
       </c>
       <c r="J31" t="s">
-        <v>103</v>
+        <v>178</v>
+      </c>
+      <c r="K31" t="s">
+        <v>180</v>
       </c>
       <c r="L31" t="s">
-        <v>159</v>
-      </c>
-      <c r="P31" t="s">
-        <v>160</v>
+        <v>46</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B32" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C32" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>87</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M32" t="s">
-        <v>163</v>
+        <v>168</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B33" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="C33" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>87</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L33" t="s">
-        <v>97</v>
-      </c>
-      <c r="M33" t="s">
-        <v>106</v>
-      </c>
-      <c r="N33" t="s">
-        <v>159</v>
+        <v>153</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="B34" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="C34" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D34" t="s">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>346</v>
+        <v>231</v>
+      </c>
+      <c r="H34" t="s">
+        <v>49</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>153</v>
+        <v>63</v>
+      </c>
+      <c r="N34" t="s">
+        <v>150</v>
+      </c>
+      <c r="P34" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>300</v>
+        <v>249</v>
       </c>
       <c r="B35" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="C35" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D35" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="E35" t="s">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>159</v>
+        <v>330</v>
+      </c>
+      <c r="L35" t="s">
+        <v>170</v>
+      </c>
+      <c r="O35" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="B36" t="s">
-        <v>303</v>
+        <v>241</v>
       </c>
       <c r="C36" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>348</v>
+        <v>35</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J36" t="s">
+        <v>37</v>
       </c>
       <c r="L36" t="s">
-        <v>170</v>
-      </c>
-      <c r="O36" t="s">
-        <v>171</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>304</v>
+        <v>232</v>
       </c>
       <c r="B37" t="s">
-        <v>305</v>
+        <v>233</v>
       </c>
       <c r="C37" t="s">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="D37" t="s">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>173</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>174</v>
+        <v>2</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H37" t="s">
+        <v>3</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" t="s">
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>175</v>
+        <v>5</v>
       </c>
       <c r="O37" t="s">
-        <v>176</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="B38" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="C38" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="D38" t="s">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>181</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I38" t="s">
-        <v>43</v>
-      </c>
-      <c r="J38" t="s">
-        <v>178</v>
+        <v>138</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="K38" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="L38" t="s">
-        <v>46</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>181</v>
+        <v>117</v>
+      </c>
+      <c r="M38" t="s">
+        <v>139</v>
+      </c>
+      <c r="P38" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="B39" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C39" t="s">
-        <v>182</v>
+        <v>92</v>
       </c>
       <c r="D39" t="s">
         <v>1</v>
       </c>
-      <c r="E39" t="s">
-        <v>188</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I39" t="s">
-        <v>50</v>
+      <c r="E39" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H39" t="s">
+        <v>94</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="J39" t="s">
-        <v>184</v>
-      </c>
-      <c r="K39" t="s">
-        <v>185</v>
-      </c>
-      <c r="L39" t="s">
-        <v>63</v>
-      </c>
-      <c r="M39" t="s">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="N39" t="s">
-        <v>187</v>
-      </c>
-      <c r="O39" s="3" t="s">
-        <v>188</v>
+        <v>97</v>
+      </c>
+      <c r="O39" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="B40" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="C40" t="s">
         <v>189</v>
@@ -3338,147 +3347,123 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>312</v>
+        <v>254</v>
       </c>
       <c r="B41" t="s">
-        <v>313</v>
-      </c>
-      <c r="C41" t="s">
-        <v>195</v>
-      </c>
-      <c r="D41" t="s">
+        <v>255</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E41" t="s">
-        <v>196</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="G41" t="s">
-        <v>198</v>
-      </c>
-      <c r="I41" t="s">
-        <v>102</v>
-      </c>
-      <c r="J41" t="s">
-        <v>199</v>
-      </c>
-      <c r="K41" t="s">
-        <v>115</v>
-      </c>
-      <c r="L41" t="s">
-        <v>200</v>
-      </c>
-      <c r="N41" t="s">
-        <v>201</v>
-      </c>
-      <c r="P41" t="s">
-        <v>202</v>
+      <c r="E41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>314</v>
+        <v>252</v>
       </c>
       <c r="B42" t="s">
-        <v>315</v>
-      </c>
-      <c r="C42" t="s">
-        <v>203</v>
-      </c>
-      <c r="D42" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42" t="s">
-        <v>87</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="M42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N42" t="s">
-        <v>143</v>
-      </c>
-      <c r="O42" t="s">
-        <v>6</v>
-      </c>
-      <c r="P42" t="s">
-        <v>205</v>
+        <v>253</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>316</v>
+        <v>240</v>
       </c>
       <c r="B43" t="s">
-        <v>317</v>
-      </c>
-      <c r="C43" t="s">
-        <v>206</v>
-      </c>
-      <c r="D43" t="s">
-        <v>86</v>
-      </c>
-      <c r="E43" t="s">
-        <v>87</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>152</v>
+        <v>262</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H43" t="s">
+        <v>10</v>
+      </c>
+      <c r="K43" t="s">
+        <v>110</v>
+      </c>
+      <c r="L43" t="s">
+        <v>38</v>
       </c>
       <c r="M43" t="s">
-        <v>116</v>
-      </c>
-      <c r="N43" t="s">
-        <v>175</v>
-      </c>
-      <c r="O43" t="s">
-        <v>13</v>
-      </c>
-      <c r="P43" t="s">
-        <v>208</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="B44" t="s">
-        <v>319</v>
+        <v>246</v>
       </c>
       <c r="C44" t="s">
-        <v>209</v>
+        <v>53</v>
       </c>
       <c r="D44" t="s">
         <v>1</v>
       </c>
-      <c r="E44" t="s">
-        <v>341</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>207</v>
+      <c r="E44" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G44" t="s">
+        <v>55</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="K44" t="s">
-        <v>110</v>
-      </c>
-      <c r="M44" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="N44" t="s">
-        <v>147</v>
-      </c>
-      <c r="O44" t="s">
-        <v>210</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="B45" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="C45" t="s">
         <v>211</v>
@@ -3495,109 +3480,149 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B46" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="C46" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D46" t="s">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>215</v>
+        <v>323</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>216</v>
+        <v>207</v>
+      </c>
+      <c r="K46" t="s">
+        <v>110</v>
+      </c>
+      <c r="M46" t="s">
+        <v>97</v>
+      </c>
+      <c r="N46" t="s">
+        <v>147</v>
+      </c>
+      <c r="O46" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="B47" t="s">
-        <v>325</v>
+        <v>274</v>
       </c>
       <c r="C47" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
       <c r="D47" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="E47" t="s">
-        <v>218</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>219</v>
+        <v>87</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="H47" t="s">
+        <v>42</v>
+      </c>
+      <c r="K47" t="s">
+        <v>145</v>
+      </c>
+      <c r="L47" t="s">
+        <v>117</v>
+      </c>
+      <c r="M47" t="s">
+        <v>146</v>
+      </c>
+      <c r="N47" t="s">
+        <v>147</v>
+      </c>
+      <c r="P47" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="B48" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="C48" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D48" t="s">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>221</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="I48" t="s">
-        <v>223</v>
-      </c>
-      <c r="O48" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="B49" t="s">
-        <v>329</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D49" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C49" t="s">
+        <v>217</v>
+      </c>
+      <c r="D49" t="s">
         <v>1</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>218</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="B50" t="s">
-        <v>331</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F50" s="3"/>
+        <v>297</v>
+      </c>
+      <c r="C50" t="s">
+        <v>203</v>
+      </c>
+      <c r="D50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" t="s">
+        <v>87</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="M50" t="s">
+        <v>111</v>
+      </c>
+      <c r="N50" t="s">
+        <v>143</v>
+      </c>
+      <c r="O50" t="s">
+        <v>6</v>
+      </c>
+      <c r="P50" t="s">
+        <v>205</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A1:P50">
-    <sortCondition ref="C1:C50"/>
+    <sortCondition ref="F1:F50"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
